--- a/testData/Book 7.xlsx
+++ b/testData/Book 7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="2640" tabRatio="710" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16395" windowHeight="2250" tabRatio="710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_E2E _Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Nikita</t>
   </si>
@@ -229,12 +229,6 @@
     <t>lakshmi@yahoo.com</t>
   </si>
   <si>
-    <t>laxmi</t>
-  </si>
-  <si>
-    <t>laksh</t>
-  </si>
-  <si>
     <t>laksh@yahoo.com</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>vijidevi@gmail.com</t>
   </si>
   <si>
-    <t>invalid</t>
-  </si>
-  <si>
     <t>laki@234</t>
   </si>
   <si>
@@ -257,6 +248,12 @@
   </si>
   <si>
     <t>pwd</t>
+  </si>
+  <si>
+    <t>laksh@485</t>
+  </si>
+  <si>
+    <t>laxmi@456</t>
   </si>
 </sst>
 </file>
@@ -749,7 +746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1017,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1029,10 +1026,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>42</v>
@@ -1053,41 +1050,41 @@
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
@@ -1103,6 +1100,8 @@
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="B5" r:id="rId7"/>
     <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="B3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
